--- a/ADCBackEnd/ExcelData/doctors.xlsx
+++ b/ADCBackEnd/ExcelData/doctors.xlsx
@@ -1,52 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>الاسم</t>
+    <t xml:space="preserve">الاسم</t>
   </si>
   <si>
-    <t>التقييم</t>
+    <t xml:space="preserve">التقييم</t>
   </si>
   <si>
-    <t>عميد د / يوسف فياض</t>
-  </si>
-  <si>
-    <t>عميد د / بلا بلا</t>
-  </si>
-  <si>
-    <t>لواء د / بلا بلا</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Lohit Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">عميد د </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Lohit Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">يوسف فياض</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
-    <font>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Lohit Devanagari"/>
       <family val="2"/>
-      <scheme val="minor"/>
-      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,7 +104,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -66,17 +112,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="2">
-    <xf/>
-    <xf fontId="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -84,21 +183,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="B2" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>